--- a/lab_1/ip plan.xlsx
+++ b/lab_1/ip plan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689E5560-2060-45F9-B2E4-24FA7AF461EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E177287-8778-4C09-A03E-66D99B1C1508}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
   <si>
     <t>hostname</t>
   </si>
@@ -97,9 +97,6 @@
     <t>10.0.4.3</t>
   </si>
   <si>
-    <t>10.0.4.4</t>
-  </si>
-  <si>
     <t>/24</t>
   </si>
   <si>
@@ -155,6 +152,15 @@
   </si>
   <si>
     <t>172.0.2.7</t>
+  </si>
+  <si>
+    <t>10.0.5.1</t>
+  </si>
+  <si>
+    <t>vlan 200</t>
+  </si>
+  <si>
+    <t>vlan 300</t>
   </si>
 </sst>
 </file>
@@ -272,9 +278,6 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -399,6 +402,9 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -413,13 +419,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8919700-B29D-47EB-8DB2-2674E497C110}" name="Таблица1" displayName="Таблица1" ref="A1:D33" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8919700-B29D-47EB-8DB2-2674E497C110}" name="Таблица1" displayName="Таблица1" ref="A1:D33" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A1:D33" xr:uid="{EA8D8273-C4A0-4FF4-90A6-3687DE647AE4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F5A676C5-B079-4D3C-AD3F-3E828A5E6BBD}" name="hostname" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{13659BF3-BF04-41F5-B74D-5B0D89E38A57}" name="ip address" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{9E1446E4-9EB1-4D5B-9AFC-CB17F1DD70C6}" name="prefix" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{D33D4F79-7016-4BF0-8D12-B60A417E7AAF}" name="description" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{F5A676C5-B079-4D3C-AD3F-3E828A5E6BBD}" name="hostname" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{13659BF3-BF04-41F5-B74D-5B0D89E38A57}" name="ip address" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{9E1446E4-9EB1-4D5B-9AFC-CB17F1DD70C6}" name="prefix" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{D33D4F79-7016-4BF0-8D12-B60A417E7AAF}" name="description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -691,17 +697,17 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -715,7 +721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -729,63 +735,63 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="3"/>
       <c r="C7" s="8"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
@@ -797,61 +803,61 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="3"/>
       <c r="C13" s="8"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
@@ -865,37 +871,37 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="3"/>
       <c r="C17" s="8"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
@@ -909,37 +915,37 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="8"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>4</v>
       </c>
@@ -953,37 +959,37 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="3"/>
       <c r="C25" s="10"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
@@ -997,37 +1003,37 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="3"/>
       <c r="C29" s="8"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -1035,11 +1041,13 @@
         <v>17</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -1047,11 +1055,13 @@
         <v>18</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,21 +1069,25 @@
         <v>24</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lab_1/ip plan.xlsx
+++ b/lab_1/ip plan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E177287-8778-4C09-A03E-66D99B1C1508}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1A4B7B-F497-4A82-9DC4-3CE900B0BA5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="54">
   <si>
     <t>hostname</t>
   </si>
@@ -94,9 +94,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>10.0.4.3</t>
-  </si>
-  <si>
     <t>/24</t>
   </si>
   <si>
@@ -157,10 +154,34 @@
     <t>10.0.5.1</t>
   </si>
   <si>
-    <t>vlan 200</t>
-  </si>
-  <si>
-    <t>vlan 300</t>
+    <t>10.0.4.253</t>
+  </si>
+  <si>
+    <t>10.0.4.252</t>
+  </si>
+  <si>
+    <t>10.0.5.252</t>
+  </si>
+  <si>
+    <t>10.0.5.253</t>
+  </si>
+  <si>
+    <t>10.0.6.1</t>
+  </si>
+  <si>
+    <t>vlan 400</t>
+  </si>
+  <si>
+    <t>vlan 500</t>
+  </si>
+  <si>
+    <t>vlan 600</t>
+  </si>
+  <si>
+    <t>10.0.6.252</t>
+  </si>
+  <si>
+    <t>10.0.6.253</t>
   </si>
 </sst>
 </file>
@@ -184,7 +205,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -243,11 +264,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -273,6 +303,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -419,8 +452,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8919700-B29D-47EB-8DB2-2674E497C110}" name="Таблица1" displayName="Таблица1" ref="A1:D33" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D33" xr:uid="{EA8D8273-C4A0-4FF4-90A6-3687DE647AE4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8919700-B29D-47EB-8DB2-2674E497C110}" name="Таблица1" displayName="Таблица1" ref="A1:D43" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D43" xr:uid="{EA8D8273-C4A0-4FF4-90A6-3687DE647AE4}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F5A676C5-B079-4D3C-AD3F-3E828A5E6BBD}" name="hostname" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{13659BF3-BF04-41F5-B74D-5B0D89E38A57}" name="ip address" dataDxfId="2"/>
@@ -694,20 +727,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -721,7 +754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -735,63 +768,63 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="3"/>
       <c r="C7" s="8"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
@@ -803,61 +836,61 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="3"/>
       <c r="C13" s="8"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
@@ -871,223 +904,319 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="C20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="3" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="C25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="3" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="3" t="s">
+      <c r="C31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="3" t="s">
+      <c r="C32" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="C38" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="D38" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="B39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="13"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="13"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
